--- a/TrainingIS.WebApp/Content/Files/Uploadliste 3 stagiaires .xlsx
+++ b/TrainingIS.WebApp/Content/Files/Uploadliste 3 stagiaires .xlsx
@@ -16,14 +16,14 @@
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$AD$1276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$B$1:$AE$1276</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>id_inscriptionsessionprogramme</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Code Groupe</t>
+  </si>
+  <si>
+    <t>Référence</t>
   </si>
 </sst>
 </file>
@@ -1182,594 +1185,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1"/>
-    <col min="16" max="16" width="64.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="29" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1"/>
+    <col min="17" max="17" width="64.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>C2</f>
+        <v>1996090500047</v>
+      </c>
+      <c r="B2" s="1">
         <v>3651667</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>97</v>
       </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A6" si="0">C3</f>
+        <v>1995050700078</v>
+      </c>
+      <c r="B3" s="1">
         <v>3533004</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
       <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>1997011000284</v>
+      </c>
+      <c r="B4" s="1">
         <v>3564717</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>85</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>86</v>
       </c>
-      <c r="X4" t="s">
-        <v>34</v>
-      </c>
       <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>87</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1999052700031</v>
+      </c>
+      <c r="B5" s="1">
         <v>3563974</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>75</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>76</v>
       </c>
-      <c r="X5" t="s">
-        <v>34</v>
-      </c>
       <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>55</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>199407020188</v>
+      </c>
+      <c r="B6" s="1">
         <v>3534005</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>65</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>66</v>
       </c>
-      <c r="X6" t="s">
-        <v>34</v>
-      </c>
       <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>39</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1276"/>
+  <autoFilter ref="B1:AE1276"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/TrainingIS.WebApp/Content/Files/Uploadliste 3 stagiaires .xlsx
+++ b/TrainingIS.WebApp/Content/Files/Uploadliste 3 stagiaires .xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>id_inscriptionsessionprogramme</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Baccalauréat</t>
   </si>
   <si>
-    <t>1995050700078</t>
-  </si>
-  <si>
     <t>ELBAKALI</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>محمد</t>
   </si>
   <si>
-    <t>199407020188</t>
-  </si>
-  <si>
     <t>ADMOU</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>11/05/2017</t>
   </si>
   <si>
-    <t>MOHAMMEDIA</t>
-  </si>
-  <si>
     <t>CN13426</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>28/06/2017</t>
   </si>
   <si>
-    <t>1999052700031</t>
-  </si>
-  <si>
     <t>EL KALAI</t>
   </si>
   <si>
@@ -259,15 +247,9 @@
     <t xml:space="preserve"> el boughaz rue mohamed ahmed el hayani n 43 tanger </t>
   </si>
   <si>
-    <t>القلعي</t>
-  </si>
-  <si>
     <t>29/06/2017</t>
   </si>
   <si>
-    <t>1997011000284</t>
-  </si>
-  <si>
     <t>ANNOUMANI</t>
   </si>
   <si>
@@ -298,9 +280,6 @@
     <t>03/08/2017</t>
   </si>
   <si>
-    <t>1996090500047</t>
-  </si>
-  <si>
     <t>ALADGHAM</t>
   </si>
   <si>
@@ -335,6 +314,21 @@
   </si>
   <si>
     <t>Référence</t>
+  </si>
+  <si>
+    <t>1996090500047_1</t>
+  </si>
+  <si>
+    <t>1996090500047_2</t>
+  </si>
+  <si>
+    <t>1996090500047_3</t>
+  </si>
+  <si>
+    <t>1996090500047_4</t>
+  </si>
+  <si>
+    <t>1996090500047_5</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="S1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1321,22 +1315,19 @@
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2</f>
-        <v>1996090500047</v>
+        <v>1996090500047_1</v>
       </c>
       <c r="B2" s="1">
         <v>3651667</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
@@ -1351,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -1366,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>35</v>
@@ -1375,28 +1366,28 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" t="s">
-        <v>97</v>
-      </c>
       <c r="Y2" t="s">
         <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
@@ -1405,10 +1396,10 @@
         <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AE2" t="s">
         <v>40</v>
@@ -1417,26 +1408,23 @@
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A6" si="0">C3</f>
-        <v>1995050700078</v>
+        <v>1996090500047_2</v>
       </c>
       <c r="B3" s="1">
         <v>3533004</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1444,10 +1432,10 @@
         <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
         <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -1459,7 +1447,7 @@
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>35</v>
@@ -1468,22 +1456,22 @@
         <v>32</v>
       </c>
       <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
         <v>47</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" t="s">
-        <v>48</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
         <v>49</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
       </c>
       <c r="Y3" t="s">
         <v>34</v>
@@ -1498,10 +1486,10 @@
         <v>39</v>
       </c>
       <c r="AC3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" t="s">
         <v>51</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>52</v>
       </c>
       <c r="AE3" t="s">
         <v>40</v>
@@ -1510,19 +1498,19 @@
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>1997011000284</v>
+        <v>1996090500047_3</v>
       </c>
       <c r="B4" s="1">
         <v>3564717</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1539,9 +1527,6 @@
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
       <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1555,7 +1540,7 @@
         <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>35</v>
@@ -1564,22 +1549,22 @@
         <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s">
         <v>34</v>
@@ -1594,10 +1579,10 @@
         <v>39</v>
       </c>
       <c r="AC4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s">
         <v>40</v>
@@ -1606,19 +1591,19 @@
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>1999052700031</v>
+        <v>1996090500047_4</v>
       </c>
       <c r="B5" s="1">
         <v>3563974</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -1633,10 +1618,10 @@
         <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
@@ -1651,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>35</v>
@@ -1660,28 +1645,28 @@
         <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
         <v>34</v>
       </c>
       <c r="Z5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s">
         <v>38</v>
@@ -1689,11 +1674,8 @@
       <c r="AB5" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" t="s">
-        <v>78</v>
-      </c>
       <c r="AD5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE5" t="s">
         <v>40</v>
@@ -1702,22 +1684,22 @@
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>199407020188</v>
+        <v>1996090500047_5</v>
       </c>
       <c r="B6" s="1">
         <v>3534005</v>
       </c>
       <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1729,10 +1711,10 @@
         <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>34</v>
@@ -1747,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>35</v>
@@ -1756,28 +1738,25 @@
         <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
         <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
@@ -1786,13 +1765,10 @@
         <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AD6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1828,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
